--- a/MeetingProtocol.xlsx
+++ b/MeetingProtocol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -48,17 +48,17 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sasse, Andreas, Dr. (K-EFFI/D) - Persönliche Ansicht" guid="{06E32746-F3D9-4832-92A4-969AD9231C98}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="543" tabRatio="717" activeSheetId="1"/>
+    <customWorkbookView name="Mennenga, Bjoern, Dr. (K-EFFI/S) - Persönliche Ansicht" guid="{48A23A31-C3E8-48AA-8558-7D9EF6E6E4D1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="543" tabRatio="717" activeSheetId="1"/>
+    <customWorkbookView name="Thaden, Jörg - Persönliche Ansicht" guid="{1BF567C6-4F72-4F0F-A950-5ED75A7A1B89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="528" activeSheetId="2" showComments="commIndAndComment"/>
+    <customWorkbookView name="Sergio Di Martino - Personal View" guid="{88AD2B49-BC40-4CEF-B6F6-18AE9C790F74}" mergeInterval="0" personalView="1" maximized="1" yWindow="-4" windowWidth="1276" windowHeight="579" tabRatio="717" activeSheetId="1"/>
     <customWorkbookView name="Schaper, Thilo (K-EFFI/K) - Persönliche Ansicht" guid="{386585D9-D1A0-496B-894C-29616B2095D0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="805" tabRatio="717" activeSheetId="1"/>
-    <customWorkbookView name="Sergio Di Martino - Personal View" guid="{88AD2B49-BC40-4CEF-B6F6-18AE9C790F74}" mergeInterval="0" personalView="1" maximized="1" yWindow="-4" windowWidth="1276" windowHeight="579" tabRatio="717" activeSheetId="1"/>
-    <customWorkbookView name="Thaden, Jörg - Persönliche Ansicht" guid="{1BF567C6-4F72-4F0F-A950-5ED75A7A1B89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="528" activeSheetId="2" showComments="commIndAndComment"/>
-    <customWorkbookView name="Mennenga, Bjoern, Dr. (K-EFFI/S) - Persönliche Ansicht" guid="{48A23A31-C3E8-48AA-8558-7D9EF6E6E4D1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="543" tabRatio="717" activeSheetId="1"/>
-    <customWorkbookView name="Sasse, Andreas, Dr. (K-EFFI/D) - Persönliche Ansicht" guid="{06E32746-F3D9-4832-92A4-969AD9231C98}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="543" tabRatio="717" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t xml:space="preserve">TOP 3: </t>
   </si>
@@ -270,7 +270,16 @@
     <t>Usare un sistema "data in the cloud" per la gestione dei dati</t>
   </si>
   <si>
-    <t>Cambiare la modalità di evasione bollette, dando la possibilità di evaderla tutte con un click</t>
+    <t>Raccolta requisiti funzionali completata</t>
+  </si>
+  <si>
+    <t>Cambiare la modalità di evasione bollette, dando la possibilità di evaderle tutte con un unico click</t>
+  </si>
+  <si>
+    <t>Il lavoro di un operatore assente non va partizionato tra gli altri operatori</t>
+  </si>
+  <si>
+    <t>Interfacciare il servizio di conferma ricezione bolletta/ingiunzione con un server mail tramite API implementata in Java</t>
   </si>
 </sst>
 </file>
@@ -695,15 +704,6 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -719,6 +719,15 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -729,7 +738,35 @@
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2889,7 +2926,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2995,12 +3032,12 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="82"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="2"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -4450,24 +4487,22 @@
       <c r="IP17" s="30"/>
     </row>
     <row r="18" spans="1:250" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="88" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="89">
-        <v>43160</v>
-      </c>
-      <c r="H18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -4712,24 +4747,22 @@
       <c r="IP18" s="30"/>
     </row>
     <row r="19" spans="1:250" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="88" t="s">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="89">
-        <v>42767</v>
-      </c>
-      <c r="H19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -4975,23 +5008,23 @@
     </row>
     <row r="20" spans="1:250" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="88" t="s">
+      <c r="D20" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="86">
         <v>42767</v>
       </c>
-      <c r="H20" s="87"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -5237,20 +5270,20 @@
     </row>
     <row r="21" spans="1:250" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="86">
         <v>43160</v>
       </c>
       <c r="H21" s="70"/>
@@ -5499,12 +5532,22 @@
     </row>
     <row r="22" spans="1:250" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="86">
+        <v>43160</v>
+      </c>
       <c r="H22" s="70"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
@@ -5749,14 +5792,24 @@
       <c r="IO22" s="30"/>
       <c r="IP22" s="30"/>
     </row>
-    <row r="23" spans="1:250" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:250" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="73"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="86">
+        <v>42767</v>
+      </c>
       <c r="H23" s="70"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -6001,14 +6054,24 @@
       <c r="IO23" s="30"/>
       <c r="IP23" s="30"/>
     </row>
-    <row r="24" spans="1:250" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:250" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="73"/>
+      <c r="C24" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="86">
+        <v>43160</v>
+      </c>
       <c r="H24" s="70"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -9550,18 +9613,35 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{386585D9-D1A0-496B-894C-29616B2095D0}" showPageBreaks="1" showGridLines="0" fitToPage="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="16" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A329" sqref="A314:XFD329"/>
+    <customSheetView guid="{06E32746-F3D9-4832-92A4-969AD9231C98}" scale="80" showPageBreaks="1" showGridLines="0" fitToPage="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="16" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G320" sqref="G320"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="8" max="1048575" man="1"/>
       </colBreaks>
       <pageMargins left="0.6692913385826772" right="0.43307086614173229" top="0.70866141732283472" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;L&amp;"Univers,Mittel"&amp;8(c) Carmeq GmbH&amp;R&amp;"Univers,Mittel"&amp;8Seite &amp;P von &amp;N</oddFooter>
       </headerFooter>
-      <autoFilter ref="A16:H329">
+      <autoFilter ref="A16:H342">
+        <sortState ref="A16:H128">
+          <sortCondition descending="1" ref="G14:G657"/>
+        </sortState>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{48A23A31-C3E8-48AA-8558-7D9EF6E6E4D1}" scale="90" showGridLines="0" fitToPage="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="16" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
+      <colBreaks count="1" manualBreakCount="1">
+        <brk id="8" max="1048575" man="1"/>
+      </colBreaks>
+      <pageMargins left="0.6692913385826772" right="0.43307086614173229" top="0.70866141732283472" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
+      <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;L&amp;"Univers,Mittel"&amp;8(c) Carmeq GmbH&amp;R&amp;"Univers,Mittel"&amp;8Seite &amp;P von &amp;N</oddFooter>
+      </headerFooter>
+      <autoFilter ref="A16:H342">
         <sortState ref="A16:H128">
           <sortCondition descending="1" ref="G14:G657"/>
         </sortState>
@@ -9574,7 +9654,7 @@
         <brk id="8" max="1048575" man="1"/>
       </colBreaks>
       <pageMargins left="0.6692913385826772" right="0.43307086614173229" top="0.70866141732283472" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;L&amp;"Univers,Mittel"&amp;8(c) Carmeq GmbH&amp;R&amp;"Univers,Mittel"&amp;8Seite &amp;P von &amp;N</oddFooter>
       </headerFooter>
@@ -9584,35 +9664,18 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{48A23A31-C3E8-48AA-8558-7D9EF6E6E4D1}" scale="90" showGridLines="0" fitToPage="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="16" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
+    <customSheetView guid="{386585D9-D1A0-496B-894C-29616B2095D0}" showPageBreaks="1" showGridLines="0" fitToPage="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="16" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A329" sqref="A314:XFD329"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="8" max="1048575" man="1"/>
       </colBreaks>
       <pageMargins left="0.6692913385826772" right="0.43307086614173229" top="0.70866141732283472" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;L&amp;"Univers,Mittel"&amp;8(c) Carmeq GmbH&amp;R&amp;"Univers,Mittel"&amp;8Seite &amp;P von &amp;N</oddFooter>
       </headerFooter>
-      <autoFilter ref="A16:H342">
-        <sortState ref="A16:H128">
-          <sortCondition descending="1" ref="G14:G657"/>
-        </sortState>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{06E32746-F3D9-4832-92A4-969AD9231C98}" scale="80" showPageBreaks="1" showGridLines="0" fitToPage="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="16" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G320" sqref="G320"/>
-      <colBreaks count="1" manualBreakCount="1">
-        <brk id="8" max="1048575" man="1"/>
-      </colBreaks>
-      <pageMargins left="0.6692913385826772" right="0.43307086614173229" top="0.70866141732283472" bottom="0.59055118110236227" header="0.35433070866141736" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId4"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;L&amp;"Univers,Mittel"&amp;8(c) Carmeq GmbH&amp;R&amp;"Univers,Mittel"&amp;8Seite &amp;P von &amp;N</oddFooter>
-      </headerFooter>
-      <autoFilter ref="A16:H342">
+      <autoFilter ref="A16:H329">
         <sortState ref="A16:H128">
           <sortCondition descending="1" ref="G14:G657"/>
         </sortState>
@@ -9623,24 +9686,39 @@
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="4" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="68" stopIfTrue="1" operator="equal">
       <formula>"1 rot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="69" stopIfTrue="1" operator="equal">
       <formula>"2 gelb"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="70" stopIfTrue="1" operator="equal">
       <formula>"3 grün"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20 G22:G38">
-    <cfRule type="expression" dxfId="1" priority="64">
+  <conditionalFormatting sqref="G17:G20 G25:G38">
+    <cfRule type="expression" dxfId="5" priority="67">
       <formula>IF($C17&lt;&gt;"A", FALSE,IF($C17="",FALSE,IF($H17="x",FALSE,IF($G17&gt;TODAY(),FALSE,TRUE))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IF($C21&lt;&gt;"A", FALSE,IF($C21="",FALSE,IF($H21="x",FALSE,IF($G21&gt;TODAY(),FALSE,TRUE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF($C22&lt;&gt;"A", FALSE,IF($C22="",FALSE,IF($H22="x",FALSE,IF($G22&gt;TODAY(),FALSE,TRUE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF($C23&lt;&gt;"A", FALSE,IF($C23="",FALSE,IF($H23="x",FALSE,IF($G23&gt;TODAY(),FALSE,TRUE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF($C21&lt;&gt;"A", FALSE,IF($C21="",FALSE,IF($H21="x",FALSE,IF($G21&gt;TODAY(),FALSE,TRUE))))</formula>
+      <formula>IF($C24&lt;&gt;"A", FALSE,IF($C24="",FALSE,IF($H24="x",FALSE,IF($G24&gt;TODAY(),FALSE,TRUE))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -9860,25 +9938,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{386585D9-D1A0-496B-894C-29616B2095D0}">
+    <customSheetView guid="{06E32746-F3D9-4832-92A4-969AD9231C98}">
       <selection activeCell="D37" sqref="D37"/>
       <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{88AD2B49-BC40-4CEF-B6F6-18AE9C790F74}">
+    <customSheetView guid="{48A23A31-C3E8-48AA-8558-7D9EF6E6E4D1}">
       <selection activeCell="D37" sqref="D37"/>
       <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{48A23A31-C3E8-48AA-8558-7D9EF6E6E4D1}">
+    <customSheetView guid="{88AD2B49-BC40-4CEF-B6F6-18AE9C790F74}">
       <selection activeCell="D37" sqref="D37"/>
       <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{06E32746-F3D9-4832-92A4-969AD9231C98}">
+    <customSheetView guid="{386585D9-D1A0-496B-894C-29616B2095D0}">
       <selection activeCell="D37" sqref="D37"/>
       <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
